--- a/data/Datasheets/Courses.xlsx
+++ b/data/Datasheets/Courses.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\TLU_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Work/Workspace/TLU_Project_ScheduleManager/data/Datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C2B2144-0C63-4199-8139-B909C82BCA01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634C1645-F799-6C4D-90A8-A4CDA7ACFE40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11970" xr2:uid="{9142BB86-9F73-452A-9DD6-BF472D5F122C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="11980" xr2:uid="{9142BB86-9F73-452A-9DD6-BF472D5F122C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -7057,9 +7062,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7068,6 +7070,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7387,20 +7392,20 @@
   <dimension ref="A1:F744"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A733" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="B752" sqref="B752"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="60.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7420,7 +7425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -7440,7 +7445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -7460,7 +7465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -7480,7 +7485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -7500,7 +7505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -7520,7 +7525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -7540,7 +7545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -7560,7 +7565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -7580,7 +7585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -7600,7 +7605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -7620,7 +7625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -7640,7 +7645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -7660,7 +7665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -7680,7 +7685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -7700,7 +7705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -7720,7 +7725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -7740,7 +7745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -7760,7 +7765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
@@ -7780,7 +7785,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -7800,7 +7805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
@@ -7818,7 +7823,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
@@ -7838,7 +7843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>70</v>
       </c>
@@ -7858,7 +7863,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>74</v>
       </c>
@@ -7878,7 +7883,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
@@ -7898,7 +7903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
@@ -7918,7 +7923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -7936,7 +7941,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>86</v>
       </c>
@@ -7956,7 +7961,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
@@ -7974,7 +7979,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
@@ -7994,7 +7999,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
@@ -8014,7 +8019,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>96</v>
       </c>
@@ -8034,7 +8039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>99</v>
       </c>
@@ -8054,7 +8059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -8074,7 +8079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -8094,7 +8099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
@@ -8114,7 +8119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>108</v>
       </c>
@@ -8134,7 +8139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>110</v>
       </c>
@@ -8154,7 +8159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>113</v>
       </c>
@@ -8174,7 +8179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>115</v>
       </c>
@@ -8194,7 +8199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>117</v>
       </c>
@@ -8214,7 +8219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>119</v>
       </c>
@@ -8234,7 +8239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>121</v>
       </c>
@@ -8254,7 +8259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>124</v>
       </c>
@@ -8274,7 +8279,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>130</v>
       </c>
@@ -8294,7 +8299,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>135</v>
       </c>
@@ -8314,7 +8319,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>138</v>
       </c>
@@ -8334,7 +8339,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>142</v>
       </c>
@@ -8354,7 +8359,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>144</v>
       </c>
@@ -8374,7 +8379,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>150</v>
       </c>
@@ -8394,7 +8399,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>154</v>
       </c>
@@ -8414,7 +8419,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>157</v>
       </c>
@@ -8434,7 +8439,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>160</v>
       </c>
@@ -8454,7 +8459,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>162</v>
       </c>
@@ -8474,7 +8479,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>165</v>
       </c>
@@ -8494,7 +8499,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>167</v>
       </c>
@@ -8514,7 +8519,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>170</v>
       </c>
@@ -8534,7 +8539,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>173</v>
       </c>
@@ -8554,7 +8559,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>175</v>
       </c>
@@ -8574,7 +8579,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>179</v>
       </c>
@@ -8594,7 +8599,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>181</v>
       </c>
@@ -8614,7 +8619,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>183</v>
       </c>
@@ -8634,7 +8639,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>186</v>
       </c>
@@ -8654,7 +8659,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>189</v>
       </c>
@@ -8674,7 +8679,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>191</v>
       </c>
@@ -8694,7 +8699,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>193</v>
       </c>
@@ -8714,7 +8719,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>195</v>
       </c>
@@ -8734,7 +8739,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>197</v>
       </c>
@@ -8754,7 +8759,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>199</v>
       </c>
@@ -8774,7 +8779,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>203</v>
       </c>
@@ -8794,7 +8799,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>206</v>
       </c>
@@ -8814,7 +8819,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>208</v>
       </c>
@@ -8834,7 +8839,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>211</v>
       </c>
@@ -8854,7 +8859,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>213</v>
       </c>
@@ -8874,7 +8879,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>216</v>
       </c>
@@ -8894,7 +8899,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>218</v>
       </c>
@@ -8914,7 +8919,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>220</v>
       </c>
@@ -8934,7 +8939,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>222</v>
       </c>
@@ -8954,7 +8959,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>224</v>
       </c>
@@ -8974,7 +8979,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>226</v>
       </c>
@@ -8994,7 +8999,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>228</v>
       </c>
@@ -9014,7 +9019,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>230</v>
       </c>
@@ -9034,7 +9039,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>232</v>
       </c>
@@ -9054,7 +9059,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>236</v>
       </c>
@@ -9074,7 +9079,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>238</v>
       </c>
@@ -9094,7 +9099,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>241</v>
       </c>
@@ -9114,7 +9119,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>243</v>
       </c>
@@ -9134,7 +9139,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>353</v>
       </c>
@@ -9154,7 +9159,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>355</v>
       </c>
@@ -9172,7 +9177,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>358</v>
       </c>
@@ -9190,7 +9195,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>361</v>
       </c>
@@ -9208,7 +9213,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>364</v>
       </c>
@@ -9226,7 +9231,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>366</v>
       </c>
@@ -9244,7 +9249,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>368</v>
       </c>
@@ -9262,7 +9267,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>370</v>
       </c>
@@ -9280,7 +9285,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>372</v>
       </c>
@@ -9300,7 +9305,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>374</v>
       </c>
@@ -9320,7 +9325,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>376</v>
       </c>
@@ -9340,7 +9345,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>378</v>
       </c>
@@ -9358,7 +9363,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>380</v>
       </c>
@@ -9378,7 +9383,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>382</v>
       </c>
@@ -9398,7 +9403,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>384</v>
       </c>
@@ -9418,7 +9423,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>386</v>
       </c>
@@ -9438,7 +9443,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>388</v>
       </c>
@@ -9458,7 +9463,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>390</v>
       </c>
@@ -9476,7 +9481,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>392</v>
       </c>
@@ -9494,7 +9499,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>394</v>
       </c>
@@ -9512,7 +9517,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>396</v>
       </c>
@@ -9530,7 +9535,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>398</v>
       </c>
@@ -9548,7 +9553,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>400</v>
       </c>
@@ -9566,7 +9571,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>402</v>
       </c>
@@ -9586,7 +9591,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>404</v>
       </c>
@@ -9606,7 +9611,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>406</v>
       </c>
@@ -9626,7 +9631,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>408</v>
       </c>
@@ -9646,7 +9651,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>410</v>
       </c>
@@ -9666,7 +9671,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>412</v>
       </c>
@@ -9686,7 +9691,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>414</v>
       </c>
@@ -9704,7 +9709,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>416</v>
       </c>
@@ -9724,7 +9729,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>418</v>
       </c>
@@ -9744,7 +9749,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>421</v>
       </c>
@@ -9764,7 +9769,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>423</v>
       </c>
@@ -9784,7 +9789,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>426</v>
       </c>
@@ -9804,7 +9809,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>427</v>
       </c>
@@ -9824,7 +9829,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>428</v>
       </c>
@@ -9844,7 +9849,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>429</v>
       </c>
@@ -9864,7 +9869,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>430</v>
       </c>
@@ -9884,7 +9889,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>431</v>
       </c>
@@ -9904,7 +9909,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>433</v>
       </c>
@@ -9924,7 +9929,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>435</v>
       </c>
@@ -9944,7 +9949,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>437</v>
       </c>
@@ -9964,7 +9969,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>439</v>
       </c>
@@ -9984,7 +9989,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>441</v>
       </c>
@@ -10004,7 +10009,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>245</v>
       </c>
@@ -10024,7 +10029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>247</v>
       </c>
@@ -10044,7 +10049,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>250</v>
       </c>
@@ -10064,7 +10069,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>253</v>
       </c>
@@ -10084,7 +10089,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>255</v>
       </c>
@@ -10104,7 +10109,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>259</v>
       </c>
@@ -10124,7 +10129,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>262</v>
       </c>
@@ -10144,7 +10149,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>264</v>
       </c>
@@ -10164,7 +10169,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>266</v>
       </c>
@@ -10184,7 +10189,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>269</v>
       </c>
@@ -10204,7 +10209,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>272</v>
       </c>
@@ -10224,7 +10229,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
         <v>274</v>
       </c>
@@ -10244,7 +10249,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
         <v>276</v>
       </c>
@@ -10264,7 +10269,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
         <v>278</v>
       </c>
@@ -10284,7 +10289,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>281</v>
       </c>
@@ -10304,7 +10309,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
         <v>284</v>
       </c>
@@ -10324,7 +10329,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
         <v>286</v>
       </c>
@@ -10344,7 +10349,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
         <v>290</v>
       </c>
@@ -10364,7 +10369,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
         <v>293</v>
       </c>
@@ -10384,7 +10389,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
         <v>295</v>
       </c>
@@ -10404,7 +10409,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
         <v>297</v>
       </c>
@@ -10424,7 +10429,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>299</v>
       </c>
@@ -10444,7 +10449,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
         <v>301</v>
       </c>
@@ -10464,7 +10469,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
         <v>303</v>
       </c>
@@ -10484,7 +10489,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
         <v>305</v>
       </c>
@@ -10502,7 +10507,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
         <v>307</v>
       </c>
@@ -10522,7 +10527,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
         <v>309</v>
       </c>
@@ -10542,7 +10547,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
         <v>311</v>
       </c>
@@ -10562,7 +10567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
         <v>314</v>
       </c>
@@ -10582,7 +10587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
         <v>317</v>
       </c>
@@ -10602,7 +10607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
         <v>319</v>
       </c>
@@ -10622,7 +10627,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
         <v>321</v>
       </c>
@@ -10642,7 +10647,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
         <v>323</v>
       </c>
@@ -10662,7 +10667,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
         <v>326</v>
       </c>
@@ -10682,7 +10687,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
         <v>328</v>
       </c>
@@ -10702,7 +10707,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
         <v>331</v>
       </c>
@@ -10722,7 +10727,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
         <v>333</v>
       </c>
@@ -10742,7 +10747,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
         <v>335</v>
       </c>
@@ -10762,7 +10767,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
         <v>338</v>
       </c>
@@ -10782,7 +10787,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
         <v>341</v>
       </c>
@@ -10802,7 +10807,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
         <v>344</v>
       </c>
@@ -10822,7 +10827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
         <v>347</v>
       </c>
@@ -10842,7 +10847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
         <v>349</v>
       </c>
@@ -10862,7 +10867,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>443</v>
       </c>
@@ -10882,7 +10887,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>447</v>
       </c>
@@ -10902,7 +10907,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>451</v>
       </c>
@@ -10922,7 +10927,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>454</v>
       </c>
@@ -10942,7 +10947,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>456</v>
       </c>
@@ -10962,7 +10967,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>459</v>
       </c>
@@ -10982,7 +10987,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>462</v>
       </c>
@@ -11002,7 +11007,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>465</v>
       </c>
@@ -11022,7 +11027,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>468</v>
       </c>
@@ -11042,7 +11047,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>470</v>
       </c>
@@ -11062,7 +11067,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>473</v>
       </c>
@@ -11082,7 +11087,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>475</v>
       </c>
@@ -11102,7 +11107,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>477</v>
       </c>
@@ -11120,7 +11125,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>480</v>
       </c>
@@ -11140,7 +11145,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>445</v>
       </c>
@@ -11158,7 +11163,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>449</v>
       </c>
@@ -11178,7 +11183,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>485</v>
       </c>
@@ -11198,7 +11203,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>488</v>
       </c>
@@ -11218,7 +11223,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>490</v>
       </c>
@@ -11238,7 +11243,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>494</v>
       </c>
@@ -11258,7 +11263,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>496</v>
       </c>
@@ -11278,7 +11283,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>498</v>
       </c>
@@ -11298,7 +11303,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>500</v>
       </c>
@@ -11318,7 +11323,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>502</v>
       </c>
@@ -11338,7 +11343,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>504</v>
       </c>
@@ -11358,7 +11363,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>507</v>
       </c>
@@ -11378,7 +11383,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>510</v>
       </c>
@@ -11396,7 +11401,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>271</v>
       </c>
@@ -11414,7 +11419,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>513</v>
       </c>
@@ -11432,7 +11437,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>515</v>
       </c>
@@ -11452,7 +11457,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>518</v>
       </c>
@@ -11472,7 +11477,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>520</v>
       </c>
@@ -11492,7 +11497,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>523</v>
       </c>
@@ -11512,7 +11517,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>525</v>
       </c>
@@ -11532,7 +11537,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>527</v>
       </c>
@@ -11552,7 +11557,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>530</v>
       </c>
@@ -11572,7 +11577,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>533</v>
       </c>
@@ -11592,7 +11597,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>536</v>
       </c>
@@ -11612,7 +11617,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>538</v>
       </c>
@@ -11632,7 +11637,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>540</v>
       </c>
@@ -11652,7 +11657,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>543</v>
       </c>
@@ -11672,7 +11677,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>546</v>
       </c>
@@ -11692,7 +11697,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>549</v>
       </c>
@@ -11712,7 +11717,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>552</v>
       </c>
@@ -11732,7 +11737,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>554</v>
       </c>
@@ -11752,7 +11757,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>557</v>
       </c>
@@ -11772,7 +11777,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>559</v>
       </c>
@@ -11792,7 +11797,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>562</v>
       </c>
@@ -11812,7 +11817,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>565</v>
       </c>
@@ -11832,7 +11837,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>567</v>
       </c>
@@ -11852,7 +11857,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>570</v>
       </c>
@@ -11872,7 +11877,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>573</v>
       </c>
@@ -11892,7 +11897,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>575</v>
       </c>
@@ -11912,7 +11917,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>577</v>
       </c>
@@ -11932,7 +11937,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>579</v>
       </c>
@@ -11952,7 +11957,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>582</v>
       </c>
@@ -11972,7 +11977,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>585</v>
       </c>
@@ -11992,7 +11997,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>587</v>
       </c>
@@ -12012,7 +12017,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>590</v>
       </c>
@@ -12032,7 +12037,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>592</v>
       </c>
@@ -12052,7 +12057,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>595</v>
       </c>
@@ -12072,7 +12077,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>598</v>
       </c>
@@ -12092,7 +12097,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>601</v>
       </c>
@@ -12112,7 +12117,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>604</v>
       </c>
@@ -12132,7 +12137,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>607</v>
       </c>
@@ -12150,7 +12155,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>610</v>
       </c>
@@ -12170,7 +12175,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>612</v>
       </c>
@@ -12190,7 +12195,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>615</v>
       </c>
@@ -12208,7 +12213,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>617</v>
       </c>
@@ -12228,7 +12233,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>619</v>
       </c>
@@ -12248,7 +12253,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>621</v>
       </c>
@@ -12268,7 +12273,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>624</v>
       </c>
@@ -12288,7 +12293,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>627</v>
       </c>
@@ -12308,7 +12313,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>630</v>
       </c>
@@ -12328,7 +12333,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>633</v>
       </c>
@@ -12348,7 +12353,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>551</v>
       </c>
@@ -12368,7 +12373,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>636</v>
       </c>
@@ -12388,7 +12393,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>638</v>
       </c>
@@ -12408,7 +12413,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>640</v>
       </c>
@@ -12428,7 +12433,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>643</v>
       </c>
@@ -12448,7 +12453,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>646</v>
       </c>
@@ -12468,7 +12473,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>649</v>
       </c>
@@ -12488,7 +12493,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>564</v>
       </c>
@@ -12508,7 +12513,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>652</v>
       </c>
@@ -12528,7 +12533,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>654</v>
       </c>
@@ -12546,7 +12551,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>655</v>
       </c>
@@ -12566,7 +12571,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>657</v>
       </c>
@@ -12584,7 +12589,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>660</v>
       </c>
@@ -12604,7 +12609,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>662</v>
       </c>
@@ -12622,7 +12627,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>664</v>
       </c>
@@ -12642,7 +12647,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>666</v>
       </c>
@@ -12660,7 +12665,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>668</v>
       </c>
@@ -12680,7 +12685,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>670</v>
       </c>
@@ -12700,7 +12705,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>673</v>
       </c>
@@ -12718,7 +12723,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>675</v>
       </c>
@@ -12738,7 +12743,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>677</v>
       </c>
@@ -12758,7 +12763,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>680</v>
       </c>
@@ -12778,7 +12783,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>683</v>
       </c>
@@ -12798,7 +12803,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>169</v>
       </c>
@@ -12818,7 +12823,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>164</v>
       </c>
@@ -12838,7 +12843,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>172</v>
       </c>
@@ -12858,7 +12863,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>545</v>
       </c>
@@ -12878,7 +12883,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>693</v>
       </c>
@@ -12898,7 +12903,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>696</v>
       </c>
@@ -12916,7 +12921,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>698</v>
       </c>
@@ -12936,7 +12941,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>700</v>
       </c>
@@ -12954,7 +12959,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>702</v>
       </c>
@@ -12974,7 +12979,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>704</v>
       </c>
@@ -12992,7 +12997,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>706</v>
       </c>
@@ -13012,7 +13017,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>708</v>
       </c>
@@ -13032,7 +13037,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>210</v>
       </c>
@@ -13052,7 +13057,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>215</v>
       </c>
@@ -13072,7 +13077,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>712</v>
       </c>
@@ -13092,7 +13097,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>714</v>
       </c>
@@ -13112,7 +13117,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>716</v>
       </c>
@@ -13132,7 +13137,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>718</v>
       </c>
@@ -13150,7 +13155,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>720</v>
       </c>
@@ -13170,7 +13175,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>722</v>
       </c>
@@ -13188,7 +13193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>724</v>
       </c>
@@ -13208,7 +13213,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>726</v>
       </c>
@@ -13228,7 +13233,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>728</v>
       </c>
@@ -13246,7 +13251,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>730</v>
       </c>
@@ -13266,7 +13271,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>732</v>
       </c>
@@ -13286,7 +13291,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>734</v>
       </c>
@@ -13306,7 +13311,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>422</v>
       </c>
@@ -13326,7 +13331,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>425</v>
       </c>
@@ -13346,7 +13351,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>738</v>
       </c>
@@ -13366,7 +13371,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>740</v>
       </c>
@@ -13386,7 +13391,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>742</v>
       </c>
@@ -13406,7 +13411,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>744</v>
       </c>
@@ -13424,7 +13429,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>747</v>
       </c>
@@ -13444,7 +13449,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>751</v>
       </c>
@@ -13462,7 +13467,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>753</v>
       </c>
@@ -13482,7 +13487,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>755</v>
       </c>
@@ -13502,7 +13507,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>757</v>
       </c>
@@ -13522,7 +13527,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>760</v>
       </c>
@@ -13542,7 +13547,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>762</v>
       </c>
@@ -13562,7 +13567,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>764</v>
       </c>
@@ -13582,7 +13587,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>766</v>
       </c>
@@ -13602,7 +13607,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>768</v>
       </c>
@@ -13622,7 +13627,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>770</v>
       </c>
@@ -13642,7 +13647,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>772</v>
       </c>
@@ -13662,7 +13667,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>774</v>
       </c>
@@ -13682,7 +13687,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>776</v>
       </c>
@@ -13702,7 +13707,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>778</v>
       </c>
@@ -13722,7 +13727,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>781</v>
       </c>
@@ -13742,7 +13747,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>784</v>
       </c>
@@ -13762,7 +13767,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>787</v>
       </c>
@@ -13782,7 +13787,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>791</v>
       </c>
@@ -13802,7 +13807,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>793</v>
       </c>
@@ -13822,7 +13827,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>795</v>
       </c>
@@ -13842,7 +13847,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>797</v>
       </c>
@@ -13860,7 +13865,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>799</v>
       </c>
@@ -13880,7 +13885,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>802</v>
       </c>
@@ -13900,7 +13905,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>804</v>
       </c>
@@ -13920,7 +13925,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>808</v>
       </c>
@@ -13940,7 +13945,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>810</v>
       </c>
@@ -13960,7 +13965,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>812</v>
       </c>
@@ -13980,7 +13985,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>492</v>
       </c>
@@ -14000,7 +14005,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>817</v>
       </c>
@@ -14020,7 +14025,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>819</v>
       </c>
@@ -14040,7 +14045,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>821</v>
       </c>
@@ -14060,7 +14065,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>823</v>
       </c>
@@ -14080,7 +14085,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>825</v>
       </c>
@@ -14100,7 +14105,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>828</v>
       </c>
@@ -14120,7 +14125,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>830</v>
       </c>
@@ -14140,7 +14145,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>832</v>
       </c>
@@ -14160,7 +14165,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>835</v>
       </c>
@@ -14180,7 +14185,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>837</v>
       </c>
@@ -14200,7 +14205,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
         <v>840</v>
       </c>
@@ -14220,7 +14225,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>842</v>
       </c>
@@ -14240,7 +14245,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
         <v>844</v>
       </c>
@@ -14260,7 +14265,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>846</v>
       </c>
@@ -14280,7 +14285,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>850</v>
       </c>
@@ -14300,7 +14305,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>852</v>
       </c>
@@ -14320,7 +14325,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>854</v>
       </c>
@@ -14340,7 +14345,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
         <v>856</v>
       </c>
@@ -14360,7 +14365,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>858</v>
       </c>
@@ -14380,7 +14385,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>861</v>
       </c>
@@ -14400,7 +14405,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>863</v>
       </c>
@@ -14418,7 +14423,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>866</v>
       </c>
@@ -14436,7 +14441,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>868</v>
       </c>
@@ -14456,7 +14461,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>870</v>
       </c>
@@ -14476,7 +14481,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>872</v>
       </c>
@@ -14496,7 +14501,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>874</v>
       </c>
@@ -14516,7 +14521,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>876</v>
       </c>
@@ -14536,7 +14541,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>453</v>
       </c>
@@ -14556,7 +14561,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>883</v>
       </c>
@@ -14576,7 +14581,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>886</v>
       </c>
@@ -14596,7 +14601,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>888</v>
       </c>
@@ -14616,7 +14621,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>890</v>
       </c>
@@ -14636,7 +14641,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>461</v>
       </c>
@@ -14656,7 +14661,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>893</v>
       </c>
@@ -14676,7 +14681,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>895</v>
       </c>
@@ -14696,7 +14701,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>897</v>
       </c>
@@ -14716,7 +14721,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>899</v>
       </c>
@@ -14736,7 +14741,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>901</v>
       </c>
@@ -14756,7 +14761,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>351</v>
       </c>
@@ -14776,7 +14781,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>906</v>
       </c>
@@ -14796,7 +14801,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>908</v>
       </c>
@@ -14816,7 +14821,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>910</v>
       </c>
@@ -14836,7 +14841,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A377" s="4" t="s">
         <v>913</v>
       </c>
@@ -14856,7 +14861,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>915</v>
       </c>
@@ -14876,7 +14881,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>918</v>
       </c>
@@ -14896,7 +14901,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
         <v>920</v>
       </c>
@@ -14916,7 +14921,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>923</v>
       </c>
@@ -14936,7 +14941,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
         <v>925</v>
       </c>
@@ -14956,7 +14961,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>927</v>
       </c>
@@ -14976,7 +14981,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
         <v>929</v>
       </c>
@@ -14996,7 +15001,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>931</v>
       </c>
@@ -15016,7 +15021,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>933</v>
       </c>
@@ -15036,7 +15041,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>936</v>
       </c>
@@ -15056,7 +15061,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>938</v>
       </c>
@@ -15076,7 +15081,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>940</v>
       </c>
@@ -15096,7 +15101,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>942</v>
       </c>
@@ -15116,7 +15121,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>944</v>
       </c>
@@ -15136,7 +15141,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
         <v>946</v>
       </c>
@@ -15156,7 +15161,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>948</v>
       </c>
@@ -15176,7 +15181,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
         <v>950</v>
       </c>
@@ -15196,7 +15201,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>952</v>
       </c>
@@ -15214,7 +15219,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A396" s="4" t="s">
         <v>954</v>
       </c>
@@ -15234,7 +15239,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
         <v>957</v>
       </c>
@@ -15254,7 +15259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>960</v>
       </c>
@@ -15274,7 +15279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
         <v>962</v>
       </c>
@@ -15294,7 +15299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
         <v>965</v>
       </c>
@@ -15314,7 +15319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>967</v>
       </c>
@@ -15334,7 +15339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
         <v>969</v>
       </c>
@@ -15344,7 +15349,7 @@
       <c r="C402" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D402" s="12" t="s">
+      <c r="D402" s="11" t="s">
         <v>1072</v>
       </c>
       <c r="E402" s="2" t="s">
@@ -15354,7 +15359,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
         <v>971</v>
       </c>
@@ -15367,14 +15372,14 @@
       <c r="D403" s="9" t="s">
         <v>1073</v>
       </c>
-      <c r="E403" s="10" t="s">
+      <c r="E403" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F403" s="10" t="s">
+      <c r="F403" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>973</v>
       </c>
@@ -15385,10 +15390,10 @@
         <v>2</v>
       </c>
       <c r="D404" s="2"/>
-      <c r="E404" s="10"/>
-      <c r="F404" s="10"/>
-    </row>
-    <row r="405" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E404" s="13"/>
+      <c r="F404" s="13"/>
+    </row>
+    <row r="405" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
         <v>975</v>
       </c>
@@ -15406,7 +15411,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
         <v>977</v>
       </c>
@@ -15424,7 +15429,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
         <v>979</v>
       </c>
@@ -15444,7 +15449,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
         <v>981</v>
       </c>
@@ -15464,7 +15469,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
         <v>983</v>
       </c>
@@ -15484,7 +15489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A410" s="9" t="s">
         <v>986</v>
       </c>
@@ -15504,7 +15509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
         <v>989</v>
       </c>
@@ -15522,7 +15527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>992</v>
       </c>
@@ -15542,7 +15547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>996</v>
       </c>
@@ -15562,7 +15567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
         <v>999</v>
       </c>
@@ -15580,7 +15585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
         <v>1001</v>
       </c>
@@ -15600,7 +15605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
         <v>1004</v>
       </c>
@@ -15620,7 +15625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
         <v>1006</v>
       </c>
@@ -15638,7 +15643,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>1008</v>
       </c>
@@ -15658,7 +15663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>1012</v>
       </c>
@@ -15678,7 +15683,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
         <v>1015</v>
       </c>
@@ -15698,7 +15703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
         <v>1018</v>
       </c>
@@ -15718,7 +15723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
         <v>1021</v>
       </c>
@@ -15738,7 +15743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
         <v>1024</v>
       </c>
@@ -15758,7 +15763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A424" s="9" t="s">
         <v>1026</v>
       </c>
@@ -15778,7 +15783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>1028</v>
       </c>
@@ -15798,7 +15803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
         <v>1031</v>
       </c>
@@ -15818,7 +15823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>1035</v>
       </c>
@@ -15838,7 +15843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A428" s="9" t="s">
         <v>1037</v>
       </c>
@@ -15858,7 +15863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
         <v>1039</v>
       </c>
@@ -15878,7 +15883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
         <v>1042</v>
       </c>
@@ -15898,27 +15903,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
         <v>1045</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="C431" s="11">
+      <c r="C431" s="10">
         <v>3</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>1074</v>
       </c>
-      <c r="E431" s="10" t="s">
+      <c r="E431" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F431" s="10" t="s">
+      <c r="F431" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
         <v>1047</v>
       </c>
@@ -15931,10 +15936,10 @@
       <c r="D432" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="E432" s="10"/>
-      <c r="F432" s="10"/>
-    </row>
-    <row r="433" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E432" s="13"/>
+      <c r="F432" s="13"/>
+    </row>
+    <row r="433" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>1049</v>
       </c>
@@ -15954,7 +15959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>1052</v>
       </c>
@@ -15974,7 +15979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>1055</v>
       </c>
@@ -15994,7 +15999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>1058</v>
       </c>
@@ -16014,7 +16019,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>1060</v>
       </c>
@@ -16034,7 +16039,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
         <v>1062</v>
       </c>
@@ -16054,7 +16059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
         <v>1064</v>
       </c>
@@ -16064,7 +16069,7 @@
       <c r="C439" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D439" s="13" t="s">
+      <c r="D439" s="12" t="s">
         <v>1069</v>
       </c>
       <c r="E439" s="2" t="s">
@@ -16074,7 +16079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A440" s="9" t="s">
         <v>1067</v>
       </c>
@@ -16094,7 +16099,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
         <v>1151</v>
       </c>
@@ -16114,7 +16119,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
         <v>1154</v>
       </c>
@@ -16134,7 +16139,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
         <v>1159</v>
       </c>
@@ -16154,7 +16159,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
         <v>1161</v>
       </c>
@@ -16172,7 +16177,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
         <v>1163</v>
       </c>
@@ -16192,7 +16197,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
         <v>1166</v>
       </c>
@@ -16212,7 +16217,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
         <v>1169</v>
       </c>
@@ -16232,7 +16237,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
         <v>1171</v>
       </c>
@@ -16252,7 +16257,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
         <v>1175</v>
       </c>
@@ -16272,7 +16277,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
         <v>1177</v>
       </c>
@@ -16292,7 +16297,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
         <v>1179</v>
       </c>
@@ -16312,7 +16317,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
         <v>1181</v>
       </c>
@@ -16332,7 +16337,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
         <v>1183</v>
       </c>
@@ -16352,7 +16357,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
         <v>1185</v>
       </c>
@@ -16372,7 +16377,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
         <v>1189</v>
       </c>
@@ -16392,7 +16397,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
         <v>1191</v>
       </c>
@@ -16412,7 +16417,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
         <v>1193</v>
       </c>
@@ -16432,7 +16437,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
         <v>1195</v>
       </c>
@@ -16452,7 +16457,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
         <v>1197</v>
       </c>
@@ -16472,7 +16477,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
         <v>1199</v>
       </c>
@@ -16492,7 +16497,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
         <v>1202</v>
       </c>
@@ -16512,7 +16517,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
         <v>1204</v>
       </c>
@@ -16532,7 +16537,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
         <v>1206</v>
       </c>
@@ -16552,7 +16557,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
         <v>1208</v>
       </c>
@@ -16572,7 +16577,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
         <v>1210</v>
       </c>
@@ -16592,7 +16597,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
         <v>1212</v>
       </c>
@@ -16612,7 +16617,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
         <v>1214</v>
       </c>
@@ -16632,7 +16637,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
         <v>1216</v>
       </c>
@@ -16652,7 +16657,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
         <v>1218</v>
       </c>
@@ -16672,7 +16677,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
         <v>1220</v>
       </c>
@@ -16692,7 +16697,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
         <v>1222</v>
       </c>
@@ -16712,7 +16717,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="472" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
         <v>1224</v>
       </c>
@@ -16732,7 +16737,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
         <v>1227</v>
       </c>
@@ -16752,7 +16757,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="474" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
         <v>1229</v>
       </c>
@@ -16772,7 +16777,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
         <v>1231</v>
       </c>
@@ -16792,7 +16797,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
         <v>1233</v>
       </c>
@@ -16812,7 +16817,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
         <v>1235</v>
       </c>
@@ -16832,7 +16837,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
         <v>1238</v>
       </c>
@@ -16852,7 +16857,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
         <v>1240</v>
       </c>
@@ -16872,7 +16877,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
         <v>1243</v>
       </c>
@@ -16892,7 +16897,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
         <v>1246</v>
       </c>
@@ -16912,7 +16917,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="482" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
         <v>1249</v>
       </c>
@@ -16932,7 +16937,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="483" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
         <v>1251</v>
       </c>
@@ -16952,7 +16957,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
         <v>1253</v>
       </c>
@@ -16972,7 +16977,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="485" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A485" s="4" t="s">
         <v>1256</v>
       </c>
@@ -16992,7 +16997,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
         <v>1258</v>
       </c>
@@ -17012,7 +17017,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
         <v>1261</v>
       </c>
@@ -17030,7 +17035,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="488" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
         <v>1264</v>
       </c>
@@ -17048,7 +17053,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
         <v>1267</v>
       </c>
@@ -17066,7 +17071,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A490" s="6" t="s">
         <v>1269</v>
       </c>
@@ -17084,7 +17089,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
         <v>1271</v>
       </c>
@@ -17102,7 +17107,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
         <v>1273</v>
       </c>
@@ -17122,7 +17127,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
         <v>1275</v>
       </c>
@@ -17140,7 +17145,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
         <v>1277</v>
       </c>
@@ -17160,7 +17165,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
         <v>1280</v>
       </c>
@@ -17178,7 +17183,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
         <v>1282</v>
       </c>
@@ -17198,7 +17203,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
         <v>1285</v>
       </c>
@@ -17216,7 +17221,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
         <v>1287</v>
       </c>
@@ -17236,7 +17241,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
         <v>1289</v>
       </c>
@@ -17256,7 +17261,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
         <v>1292</v>
       </c>
@@ -17276,7 +17281,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
         <v>1295</v>
       </c>
@@ -17296,7 +17301,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A502" s="3" t="s">
         <v>1298</v>
       </c>
@@ -17314,7 +17319,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
         <v>1300</v>
       </c>
@@ -17334,7 +17339,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A504" s="3" t="s">
         <v>1303</v>
       </c>
@@ -17352,7 +17357,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
         <v>1305</v>
       </c>
@@ -17370,7 +17375,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A506" s="3" t="s">
         <v>1307</v>
       </c>
@@ -17388,7 +17393,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A507" s="6" t="s">
         <v>1309</v>
       </c>
@@ -17408,7 +17413,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="s">
         <v>1312</v>
       </c>
@@ -17426,7 +17431,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="s">
         <v>1314</v>
       </c>
@@ -17446,7 +17451,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A510" s="3" t="s">
         <v>1316</v>
       </c>
@@ -17464,7 +17469,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A511" s="3" t="s">
         <v>1318</v>
       </c>
@@ -17484,7 +17489,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A512" s="3" t="s">
         <v>1320</v>
       </c>
@@ -17504,7 +17509,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="s">
         <v>1323</v>
       </c>
@@ -17524,7 +17529,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="s">
         <v>1326</v>
       </c>
@@ -17544,7 +17549,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
         <v>1328</v>
       </c>
@@ -17564,7 +17569,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A516" s="3" t="s">
         <v>1331</v>
       </c>
@@ -17584,7 +17589,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="517" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
         <v>1334</v>
       </c>
@@ -17604,7 +17609,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="518" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A518" s="3" t="s">
         <v>1336</v>
       </c>
@@ -17622,7 +17627,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
         <v>1338</v>
       </c>
@@ -17640,7 +17645,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A520" s="3" t="s">
         <v>1340</v>
       </c>
@@ -17660,7 +17665,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="521" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
         <v>1343</v>
       </c>
@@ -17680,7 +17685,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A522" s="3" t="s">
         <v>1346</v>
       </c>
@@ -17700,7 +17705,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A523" s="3" t="s">
         <v>1348</v>
       </c>
@@ -17718,7 +17723,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A524" s="3" t="s">
         <v>1350</v>
       </c>
@@ -17738,7 +17743,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="525" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A525" s="3" t="s">
         <v>1353</v>
       </c>
@@ -17758,7 +17763,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="526" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A526" s="3" t="s">
         <v>1355</v>
       </c>
@@ -17778,7 +17783,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="527" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A527" s="3" t="s">
         <v>1357</v>
       </c>
@@ -17798,7 +17803,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="s">
         <v>1361</v>
       </c>
@@ -17818,7 +17823,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
         <v>1363</v>
       </c>
@@ -17838,7 +17843,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A530" s="3" t="s">
         <v>1365</v>
       </c>
@@ -17858,7 +17863,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
         <v>1368</v>
       </c>
@@ -17876,7 +17881,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A532" s="3" t="s">
         <v>1371</v>
       </c>
@@ -17894,7 +17899,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
         <v>177</v>
       </c>
@@ -17914,7 +17919,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A534" s="3" t="s">
         <v>1375</v>
       </c>
@@ -17934,7 +17939,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="535" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
         <v>1377</v>
       </c>
@@ -17954,7 +17959,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="536" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="s">
         <v>1379</v>
       </c>
@@ -17974,7 +17979,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
         <v>1381</v>
       </c>
@@ -17994,7 +17999,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="s">
         <v>1382</v>
       </c>
@@ -18014,7 +18019,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="539" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="s">
         <v>1384</v>
       </c>
@@ -18034,7 +18039,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="540" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A540" s="3" t="s">
         <v>1386</v>
       </c>
@@ -18054,7 +18059,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="541" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A541" s="3" t="s">
         <v>1388</v>
       </c>
@@ -18074,7 +18079,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="542" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A542" s="3" t="s">
         <v>152</v>
       </c>
@@ -18094,7 +18099,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="543" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
         <v>1392</v>
       </c>
@@ -18114,7 +18119,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
         <v>1395</v>
       </c>
@@ -18134,7 +18139,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
         <v>1398</v>
       </c>
@@ -18154,7 +18159,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="546" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A546" s="3" t="s">
         <v>1400</v>
       </c>
@@ -18174,7 +18179,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
         <v>1402</v>
       </c>
@@ -18194,7 +18199,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A548" s="3" t="s">
         <v>1404</v>
       </c>
@@ -18214,7 +18219,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="549" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
         <v>1406</v>
       </c>
@@ -18234,7 +18239,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A550" s="3" t="s">
         <v>1408</v>
       </c>
@@ -18254,7 +18259,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
         <v>1409</v>
       </c>
@@ -18274,7 +18279,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A552" s="3" t="s">
         <v>1411</v>
       </c>
@@ -18294,7 +18299,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
         <v>1413</v>
       </c>
@@ -18314,7 +18319,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A554" s="3" t="s">
         <v>1415</v>
       </c>
@@ -18334,7 +18339,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
         <v>1417</v>
       </c>
@@ -18354,7 +18359,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A556" s="3" t="s">
         <v>1419</v>
       </c>
@@ -18374,7 +18379,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
         <v>1421</v>
       </c>
@@ -18394,7 +18399,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A558" s="3" t="s">
         <v>839</v>
       </c>
@@ -18414,7 +18419,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
         <v>1424</v>
       </c>
@@ -18434,7 +18439,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A560" s="3" t="s">
         <v>1426</v>
       </c>
@@ -18454,7 +18459,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
         <v>1428</v>
       </c>
@@ -18474,7 +18479,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A562" s="3" t="s">
         <v>1430</v>
       </c>
@@ -18494,7 +18499,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
         <v>1433</v>
       </c>
@@ -18514,7 +18519,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A564" s="3" t="s">
         <v>1436</v>
       </c>
@@ -18532,7 +18537,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
         <v>1438</v>
       </c>
@@ -18550,7 +18555,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A566" s="3" t="s">
         <v>1440</v>
       </c>
@@ -18568,7 +18573,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A567" s="6" t="s">
         <v>1442</v>
       </c>
@@ -18586,7 +18591,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="568" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A568" s="3" t="s">
         <v>522</v>
       </c>
@@ -18604,7 +18609,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A569" s="3" t="s">
         <v>1445</v>
       </c>
@@ -18624,7 +18629,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A570" s="3" t="s">
         <v>1448</v>
       </c>
@@ -18644,7 +18649,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="571" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A571" s="3" t="s">
         <v>1450</v>
       </c>
@@ -18662,7 +18667,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A572" s="3" t="s">
         <v>1452</v>
       </c>
@@ -18682,7 +18687,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
         <v>1454</v>
       </c>
@@ -18702,7 +18707,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A574" s="3" t="s">
         <v>1435</v>
       </c>
@@ -18722,7 +18727,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
         <v>1457</v>
       </c>
@@ -18742,7 +18747,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A576" s="3" t="s">
         <v>1459</v>
       </c>
@@ -18762,7 +18767,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
         <v>1461</v>
       </c>
@@ -18782,7 +18787,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A578" s="3" t="s">
         <v>1463</v>
       </c>
@@ -18802,7 +18807,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
         <v>1465</v>
       </c>
@@ -18822,7 +18827,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A580" s="6" t="s">
         <v>1467</v>
       </c>
@@ -18842,7 +18847,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
         <v>1469</v>
       </c>
@@ -18862,7 +18867,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A582" s="3" t="s">
         <v>1471</v>
       </c>
@@ -18882,7 +18887,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
         <v>1473</v>
       </c>
@@ -18902,7 +18907,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A584" s="3" t="s">
         <v>1475</v>
       </c>
@@ -18922,7 +18927,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A585" s="3" t="s">
         <v>1477</v>
       </c>
@@ -18942,7 +18947,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A586" s="3" t="s">
         <v>1479</v>
       </c>
@@ -18962,7 +18967,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
         <v>1481</v>
       </c>
@@ -18982,7 +18987,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A588" s="3" t="s">
         <v>1483</v>
       </c>
@@ -19002,7 +19007,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
         <v>1485</v>
       </c>
@@ -19022,7 +19027,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A590" s="3" t="s">
         <v>1487</v>
       </c>
@@ -19042,7 +19047,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
         <v>1489</v>
       </c>
@@ -19062,7 +19067,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A592" s="3" t="s">
         <v>1491</v>
       </c>
@@ -19082,7 +19087,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="s">
         <v>1493</v>
       </c>
@@ -19102,7 +19107,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A594" s="3" t="s">
         <v>1495</v>
       </c>
@@ -19122,7 +19127,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
         <v>1497</v>
       </c>
@@ -19142,7 +19147,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A596" s="3" t="s">
         <v>1499</v>
       </c>
@@ -19162,7 +19167,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A597" s="3" t="s">
         <v>1501</v>
       </c>
@@ -19182,7 +19187,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A598" s="3" t="s">
         <v>1503</v>
       </c>
@@ -19202,7 +19207,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
         <v>1505</v>
       </c>
@@ -19222,7 +19227,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A600" s="3" t="s">
         <v>1507</v>
       </c>
@@ -19242,7 +19247,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A601" s="3" t="s">
         <v>1509</v>
       </c>
@@ -19262,7 +19267,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A602" s="3" t="s">
         <v>1511</v>
       </c>
@@ -19282,7 +19287,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
         <v>1514</v>
       </c>
@@ -19302,7 +19307,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A604" s="3" t="s">
         <v>1516</v>
       </c>
@@ -19322,7 +19327,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="605" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
         <v>1518</v>
       </c>
@@ -19342,7 +19347,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A606" s="3" t="s">
         <v>1520</v>
       </c>
@@ -19362,7 +19367,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="607" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
         <v>1394</v>
       </c>
@@ -19382,7 +19387,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="608" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A608" s="3" t="s">
         <v>1524</v>
       </c>
@@ -19402,7 +19407,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
         <v>1527</v>
       </c>
@@ -19420,7 +19425,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="610" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A610" s="3" t="s">
         <v>1529</v>
       </c>
@@ -19440,7 +19445,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="611" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
         <v>1532</v>
       </c>
@@ -19460,7 +19465,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="612" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A612" s="3" t="s">
         <v>1534</v>
       </c>
@@ -19480,7 +19485,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="613" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
         <v>1537</v>
       </c>
@@ -19498,7 +19503,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="614" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A614" s="3" t="s">
         <v>1539</v>
       </c>
@@ -19518,7 +19523,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="615" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A615" s="3" t="s">
         <v>1542</v>
       </c>
@@ -19538,7 +19543,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="616" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A616" s="3" t="s">
         <v>1544</v>
       </c>
@@ -19558,7 +19563,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="617" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
         <v>1546</v>
       </c>
@@ -19578,7 +19583,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="618" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A618" s="4" t="s">
         <v>1548</v>
       </c>
@@ -19598,7 +19603,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="619" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
         <v>1551</v>
       </c>
@@ -19618,7 +19623,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="620" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A620" s="3" t="s">
         <v>1553</v>
       </c>
@@ -19638,7 +19643,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A621" s="3" t="s">
         <v>1255</v>
       </c>
@@ -19658,7 +19663,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A622" s="3" t="s">
         <v>1557</v>
       </c>
@@ -19678,7 +19683,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="623" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A623" s="3" t="s">
         <v>1560</v>
       </c>
@@ -19698,7 +19703,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="624" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A624" s="3" t="s">
         <v>1562</v>
       </c>
@@ -19718,7 +19723,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A625" s="3" t="s">
         <v>1564</v>
       </c>
@@ -19738,7 +19743,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="626" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A626" s="3" t="s">
         <v>1567</v>
       </c>
@@ -19758,7 +19763,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A627" s="3" t="s">
         <v>1569</v>
       </c>
@@ -19778,7 +19783,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="628" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A628" s="3" t="s">
         <v>1571</v>
       </c>
@@ -19798,7 +19803,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A629" s="3" t="s">
         <v>1573</v>
       </c>
@@ -19818,7 +19823,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="630" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A630" s="3" t="s">
         <v>1575</v>
       </c>
@@ -19838,7 +19843,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="631" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A631" s="3" t="s">
         <v>1577</v>
       </c>
@@ -19858,7 +19863,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="632" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A632" s="3" t="s">
         <v>1579</v>
       </c>
@@ -19878,7 +19883,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A633" s="3" t="s">
         <v>1581</v>
       </c>
@@ -19898,7 +19903,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="634" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A634" s="3" t="s">
         <v>1566</v>
       </c>
@@ -19918,7 +19923,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A635" s="3" t="s">
         <v>1584</v>
       </c>
@@ -19938,7 +19943,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A636" s="3" t="s">
         <v>1586</v>
       </c>
@@ -19958,7 +19963,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A637" s="3" t="s">
         <v>1588</v>
       </c>
@@ -19978,7 +19983,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A638" s="3" t="s">
         <v>1590</v>
       </c>
@@ -19998,7 +20003,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="639" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A639" s="3" t="s">
         <v>1592</v>
       </c>
@@ -20018,7 +20023,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="640" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A640" s="3" t="s">
         <v>1594</v>
       </c>
@@ -20038,7 +20043,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="641" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A641" s="3" t="s">
         <v>1596</v>
       </c>
@@ -20058,7 +20063,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="642" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A642" s="3" t="s">
         <v>257</v>
       </c>
@@ -20076,7 +20081,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="643" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A643" s="3" t="s">
         <v>1599</v>
       </c>
@@ -20094,7 +20099,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="644" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A644" s="3" t="s">
         <v>1601</v>
       </c>
@@ -20114,7 +20119,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="645" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A645" s="3" t="s">
         <v>1603</v>
       </c>
@@ -20132,7 +20137,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="646" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A646" s="3" t="s">
         <v>1605</v>
       </c>
@@ -20150,7 +20155,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="647" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A647" s="3" t="s">
         <v>1608</v>
       </c>
@@ -20168,7 +20173,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="648" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A648" s="3" t="s">
         <v>1611</v>
       </c>
@@ -20186,7 +20191,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="649" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A649" s="3" t="s">
         <v>1613</v>
       </c>
@@ -20206,7 +20211,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A650" s="3" t="s">
         <v>1615</v>
       </c>
@@ -20224,7 +20229,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="651" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A651" s="3" t="s">
         <v>1617</v>
       </c>
@@ -20244,7 +20249,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="652" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A652" s="3" t="s">
         <v>1619</v>
       </c>
@@ -20264,7 +20269,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="653" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A653" s="3" t="s">
         <v>1622</v>
       </c>
@@ -20284,7 +20289,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="654" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A654" s="3" t="s">
         <v>1625</v>
       </c>
@@ -20302,7 +20307,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="655" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A655" s="3" t="s">
         <v>1627</v>
       </c>
@@ -20320,7 +20325,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="656" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A656" s="3" t="s">
         <v>1629</v>
       </c>
@@ -20338,7 +20343,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="657" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A657" s="3" t="s">
         <v>1631</v>
       </c>
@@ -20358,7 +20363,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="658" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A658" s="3" t="s">
         <v>1634</v>
       </c>
@@ -20378,7 +20383,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="659" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A659" s="3" t="s">
         <v>1636</v>
       </c>
@@ -20396,7 +20401,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="660" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A660" s="3" t="s">
         <v>1638</v>
       </c>
@@ -20416,7 +20421,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="661" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A661" s="3" t="s">
         <v>1640</v>
       </c>
@@ -20434,7 +20439,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="662" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A662" s="3" t="s">
         <v>1643</v>
       </c>
@@ -20452,7 +20457,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="663" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A663" s="4" t="s">
         <v>1645</v>
       </c>
@@ -20470,7 +20475,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="664" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A664" s="3" t="s">
         <v>1647</v>
       </c>
@@ -20488,7 +20493,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="665" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A665" s="3" t="s">
         <v>1649</v>
       </c>
@@ -20506,7 +20511,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="666" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A666" s="3" t="s">
         <v>1651</v>
       </c>
@@ -20524,7 +20529,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="667" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A667" s="3" t="s">
         <v>1653</v>
       </c>
@@ -20544,7 +20549,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="668" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A668" s="3" t="s">
         <v>1656</v>
       </c>
@@ -20564,7 +20569,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="669" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A669" s="3" t="s">
         <v>1659</v>
       </c>
@@ -20584,7 +20589,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="670" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A670" s="3" t="s">
         <v>1661</v>
       </c>
@@ -20604,7 +20609,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="671" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A671" s="3" t="s">
         <v>1663</v>
       </c>
@@ -20622,7 +20627,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="672" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A672" s="3" t="s">
         <v>1665</v>
       </c>
@@ -20642,7 +20647,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="673" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A673" s="3" t="s">
         <v>1668</v>
       </c>
@@ -20660,7 +20665,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="674" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A674" s="3" t="s">
         <v>1669</v>
       </c>
@@ -20680,7 +20685,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="675" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A675" s="3" t="s">
         <v>1671</v>
       </c>
@@ -20700,7 +20705,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="676" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A676" s="3" t="s">
         <v>1673</v>
       </c>
@@ -20720,7 +20725,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="677" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A677" s="3" t="s">
         <v>1675</v>
       </c>
@@ -20740,7 +20745,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="678" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A678" s="3" t="s">
         <v>1677</v>
       </c>
@@ -20760,7 +20765,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="679" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A679" s="3" t="s">
         <v>1679</v>
       </c>
@@ -20780,7 +20785,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="680" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A680" s="3" t="s">
         <v>1681</v>
       </c>
@@ -20800,7 +20805,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="681" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A681" s="3" t="s">
         <v>1683</v>
       </c>
@@ -20820,7 +20825,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="682" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A682" s="3" t="s">
         <v>1685</v>
       </c>
@@ -20840,7 +20845,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="683" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A683" s="3" t="s">
         <v>1687</v>
       </c>
@@ -20858,7 +20863,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="684" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A684" s="3" t="s">
         <v>1690</v>
       </c>
@@ -20878,7 +20883,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="685" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A685" s="3" t="s">
         <v>1692</v>
       </c>
@@ -20896,7 +20901,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="686" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A686" s="3" t="s">
         <v>1694</v>
       </c>
@@ -20914,7 +20919,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="687" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A687" s="3" t="s">
         <v>1696</v>
       </c>
@@ -20932,7 +20937,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="688" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A688" s="3" t="s">
         <v>1698</v>
       </c>
@@ -20950,7 +20955,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="689" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A689" s="3" t="s">
         <v>1624</v>
       </c>
@@ -20968,7 +20973,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="690" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A690" s="3" t="s">
         <v>1701</v>
       </c>
@@ -20986,7 +20991,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="691" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A691" s="3" t="s">
         <v>1703</v>
       </c>
@@ -21004,7 +21009,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="692" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A692" s="3" t="s">
         <v>1705</v>
       </c>
@@ -21022,7 +21027,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="693" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A693" s="3" t="s">
         <v>1707</v>
       </c>
@@ -21040,7 +21045,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="694" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A694" s="3" t="s">
         <v>1709</v>
       </c>
@@ -21058,7 +21063,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="695" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A695" s="3" t="s">
         <v>1711</v>
       </c>
@@ -21078,7 +21083,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="696" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A696" s="3" t="s">
         <v>1713</v>
       </c>
@@ -21096,7 +21101,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="697" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A697" s="3" t="s">
         <v>1715</v>
       </c>
@@ -21114,7 +21119,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="698" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A698" s="3" t="s">
         <v>1717</v>
       </c>
@@ -21134,7 +21139,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="699" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A699" s="3" t="s">
         <v>1719</v>
       </c>
@@ -21154,7 +21159,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="700" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A700" s="3" t="s">
         <v>1721</v>
       </c>
@@ -21172,7 +21177,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="701" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A701" s="3" t="s">
         <v>1723</v>
       </c>
@@ -21190,7 +21195,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="702" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A702" s="3" t="s">
         <v>1725</v>
       </c>
@@ -21208,7 +21213,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="703" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A703" s="3" t="s">
         <v>1727</v>
       </c>
@@ -21226,7 +21231,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="704" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A704" s="3" t="s">
         <v>1729</v>
       </c>
@@ -21244,7 +21249,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="705" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A705" s="3" t="s">
         <v>1731</v>
       </c>
@@ -21262,7 +21267,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="706" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A706" s="3" t="s">
         <v>1733</v>
       </c>
@@ -21282,7 +21287,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="707" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A707" s="3" t="s">
         <v>1735</v>
       </c>
@@ -21302,7 +21307,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="708" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A708" s="8" t="s">
         <v>1076</v>
       </c>
@@ -21322,7 +21327,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="709" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A709" s="8" t="s">
         <v>1078</v>
       </c>
@@ -21342,7 +21347,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="710" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A710" s="8" t="s">
         <v>1081</v>
       </c>
@@ -21362,7 +21367,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="711" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A711" s="8" t="s">
         <v>1083</v>
       </c>
@@ -21382,7 +21387,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="712" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A712" s="8" t="s">
         <v>1085</v>
       </c>
@@ -21402,7 +21407,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="713" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A713" s="8" t="s">
         <v>1087</v>
       </c>
@@ -21422,7 +21427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="714" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A714" s="8" t="s">
         <v>1089</v>
       </c>
@@ -21442,7 +21447,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="715" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A715" s="8" t="s">
         <v>1091</v>
       </c>
@@ -21462,7 +21467,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="716" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A716" s="8" t="s">
         <v>1093</v>
       </c>
@@ -21482,7 +21487,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="717" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A717" s="8" t="s">
         <v>1095</v>
       </c>
@@ -21500,7 +21505,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="718" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A718" s="8" t="s">
         <v>1097</v>
       </c>
@@ -21518,7 +21523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A719" s="8" t="s">
         <v>1099</v>
       </c>
@@ -21536,7 +21541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A720" s="8" t="s">
         <v>1101</v>
       </c>
@@ -21554,7 +21559,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="721" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A721" s="8" t="s">
         <v>1103</v>
       </c>
@@ -21572,7 +21577,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="722" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A722" s="8" t="s">
         <v>1105</v>
       </c>
@@ -21590,7 +21595,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="723" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A723" s="8" t="s">
         <v>1107</v>
       </c>
@@ -21608,7 +21613,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="724" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A724" s="8" t="s">
         <v>1109</v>
       </c>
@@ -21626,7 +21631,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="725" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A725" s="8" t="s">
         <v>1111</v>
       </c>
@@ -21644,7 +21649,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="726" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A726" s="8" t="s">
         <v>1113</v>
       </c>
@@ -21662,7 +21667,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="727" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A727" s="8" t="s">
         <v>1115</v>
       </c>
@@ -21680,7 +21685,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="728" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A728" s="8" t="s">
         <v>1117</v>
       </c>
@@ -21698,7 +21703,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="729" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A729" s="8" t="s">
         <v>1119</v>
       </c>
@@ -21716,7 +21721,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="730" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A730" s="8" t="s">
         <v>1121</v>
       </c>
@@ -21734,7 +21739,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="731" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A731" s="8" t="s">
         <v>1122</v>
       </c>
@@ -21752,7 +21757,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="732" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A732" s="8" t="s">
         <v>1124</v>
       </c>
@@ -21770,7 +21775,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="733" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A733" s="8" t="s">
         <v>1126</v>
       </c>
@@ -21788,7 +21793,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="734" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A734" s="8" t="s">
         <v>1128</v>
       </c>
@@ -21806,7 +21811,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="735" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A735" s="8" t="s">
         <v>1130</v>
       </c>
@@ -21824,7 +21829,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="736" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A736" s="8" t="s">
         <v>1132</v>
       </c>
@@ -21842,7 +21847,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="737" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A737" s="8" t="s">
         <v>1134</v>
       </c>
@@ -21860,7 +21865,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A738" s="8" t="s">
         <v>1136</v>
       </c>
@@ -21878,7 +21883,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="739" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A739" s="8" t="s">
         <v>1138</v>
       </c>
@@ -21896,7 +21901,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="740" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A740" s="8" t="s">
         <v>1140</v>
       </c>
@@ -21914,7 +21919,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="741" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A741" s="8" t="s">
         <v>1142</v>
       </c>
@@ -21932,7 +21937,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="742" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A742" s="8" t="s">
         <v>1144</v>
       </c>
@@ -21952,7 +21957,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="743" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A743" s="8" t="s">
         <v>1147</v>
       </c>
@@ -21972,7 +21977,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="744" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A744" s="8" t="s">
         <v>1149</v>
       </c>
